--- a/uploads/file2.xlsx
+++ b/uploads/file2.xlsx
@@ -28,9 +28,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>User1</t>
-  </si>
-  <si>
     <t>User2</t>
   </si>
   <si>
@@ -328,7 +325,7 @@
     <t>User100</t>
   </si>
   <si>
-    <t>ACC0001</t>
+    <t>User101</t>
   </si>
   <si>
     <t>ACC0002</t>
@@ -626,6 +623,9 @@
   </si>
   <si>
     <t>ACC0100</t>
+  </si>
+  <si>
+    <t>ACC0101</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1014,12 +1014,12 @@
         <v>104</v>
       </c>
       <c r="D2">
-        <v>1587.21</v>
+        <v>3319.11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1028,12 +1028,12 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>4587.37</v>
+        <v>2482.85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1042,12 +1042,12 @@
         <v>106</v>
       </c>
       <c r="D4">
-        <v>1368.72</v>
+        <v>1616.51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1056,12 +1056,12 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>1671.61</v>
+        <v>3048.14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1070,12 +1070,12 @@
         <v>108</v>
       </c>
       <c r="D6">
-        <v>1223.46</v>
+        <v>1929.23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1084,12 +1084,12 @@
         <v>109</v>
       </c>
       <c r="D7">
-        <v>4906.11</v>
+        <v>3544.33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1098,12 +1098,12 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <v>4976.32</v>
+        <v>4722.3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1112,12 +1112,12 @@
         <v>111</v>
       </c>
       <c r="D9">
-        <v>3182.41</v>
+        <v>3092.13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1126,12 +1126,12 @@
         <v>112</v>
       </c>
       <c r="D10">
-        <v>2385.3</v>
+        <v>3082.86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1140,12 +1140,12 @@
         <v>113</v>
       </c>
       <c r="D11">
-        <v>3452.35</v>
+        <v>2083.51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1154,12 +1154,12 @@
         <v>114</v>
       </c>
       <c r="D12">
-        <v>4943.66</v>
+        <v>2477.87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1168,12 +1168,12 @@
         <v>115</v>
       </c>
       <c r="D13">
-        <v>1514.5</v>
+        <v>1085.99</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1182,12 +1182,12 @@
         <v>116</v>
       </c>
       <c r="D14">
-        <v>4403.52</v>
+        <v>3776.82</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1196,12 +1196,12 @@
         <v>117</v>
       </c>
       <c r="D15">
-        <v>1709.59</v>
+        <v>2933.39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1210,12 +1210,12 @@
         <v>118</v>
       </c>
       <c r="D16">
-        <v>4141.53</v>
+        <v>4444.71</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1224,12 +1224,12 @@
         <v>119</v>
       </c>
       <c r="D17">
-        <v>1537.5</v>
+        <v>3118.87</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1238,12 +1238,12 @@
         <v>120</v>
       </c>
       <c r="D18">
-        <v>2221.6</v>
+        <v>2079.17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1252,12 +1252,12 @@
         <v>121</v>
       </c>
       <c r="D19">
-        <v>3477.89</v>
+        <v>4955.33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1266,12 +1266,12 @@
         <v>122</v>
       </c>
       <c r="D20">
-        <v>2979.6</v>
+        <v>2357.29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1280,12 +1280,12 @@
         <v>123</v>
       </c>
       <c r="D21">
-        <v>3361.74</v>
+        <v>1852.58</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -1294,12 +1294,12 @@
         <v>124</v>
       </c>
       <c r="D22">
-        <v>2307.43</v>
+        <v>3441.35</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1308,12 +1308,12 @@
         <v>125</v>
       </c>
       <c r="D23">
-        <v>1186.59</v>
+        <v>4304.81</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1322,12 +1322,12 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>3447.33</v>
+        <v>4041.24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -1336,12 +1336,12 @@
         <v>127</v>
       </c>
       <c r="D25">
-        <v>2024.25</v>
+        <v>3155.46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1350,12 +1350,12 @@
         <v>128</v>
       </c>
       <c r="D26">
-        <v>2677.78</v>
+        <v>4860.28</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1364,12 +1364,12 @@
         <v>129</v>
       </c>
       <c r="D27">
-        <v>1781.98</v>
+        <v>4027.3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1378,12 +1378,12 @@
         <v>130</v>
       </c>
       <c r="D28">
-        <v>2938.68</v>
+        <v>1251.15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1392,12 +1392,12 @@
         <v>131</v>
       </c>
       <c r="D29">
-        <v>2630.34</v>
+        <v>3871.27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -1406,12 +1406,12 @@
         <v>132</v>
       </c>
       <c r="D30">
-        <v>4028.4</v>
+        <v>3368.61</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1420,12 +1420,12 @@
         <v>133</v>
       </c>
       <c r="D31">
-        <v>2759.37</v>
+        <v>1661.32</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -1434,12 +1434,12 @@
         <v>134</v>
       </c>
       <c r="D32">
-        <v>1597.18</v>
+        <v>4700.05</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1448,12 +1448,12 @@
         <v>135</v>
       </c>
       <c r="D33">
-        <v>3885.23</v>
+        <v>3892.09</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -1462,12 +1462,12 @@
         <v>136</v>
       </c>
       <c r="D34">
-        <v>2592.29</v>
+        <v>1328.74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -1476,12 +1476,12 @@
         <v>137</v>
       </c>
       <c r="D35">
-        <v>4374.6</v>
+        <v>2196.54</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -1490,12 +1490,12 @@
         <v>138</v>
       </c>
       <c r="D36">
-        <v>2505.77</v>
+        <v>2556.44</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -1504,12 +1504,12 @@
         <v>139</v>
       </c>
       <c r="D37">
-        <v>3751.93</v>
+        <v>3864.21</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -1518,12 +1518,12 @@
         <v>140</v>
       </c>
       <c r="D38">
-        <v>1367.7</v>
+        <v>3926.67</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -1532,12 +1532,12 @@
         <v>141</v>
       </c>
       <c r="D39">
-        <v>4543.81</v>
+        <v>4517.6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -1546,12 +1546,12 @@
         <v>142</v>
       </c>
       <c r="D40">
-        <v>1299.13</v>
+        <v>4175.79</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -1560,12 +1560,12 @@
         <v>143</v>
       </c>
       <c r="D41">
-        <v>4920.04</v>
+        <v>1047.69</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -1574,12 +1574,12 @@
         <v>144</v>
       </c>
       <c r="D42">
-        <v>2160.03</v>
+        <v>4501.32</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -1588,12 +1588,12 @@
         <v>145</v>
       </c>
       <c r="D43">
-        <v>4050.88</v>
+        <v>4051.38</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -1602,12 +1602,12 @@
         <v>146</v>
       </c>
       <c r="D44">
-        <v>1842.34</v>
+        <v>2487.64</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -1616,12 +1616,12 @@
         <v>147</v>
       </c>
       <c r="D45">
-        <v>1749.64</v>
+        <v>1157.75</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
@@ -1630,12 +1630,12 @@
         <v>148</v>
       </c>
       <c r="D46">
-        <v>1074.95</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -1644,12 +1644,12 @@
         <v>149</v>
       </c>
       <c r="D47">
-        <v>4917.37</v>
+        <v>2689.47</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -1658,12 +1658,12 @@
         <v>150</v>
       </c>
       <c r="D48">
-        <v>3345.02</v>
+        <v>1552.43</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -1672,12 +1672,12 @@
         <v>151</v>
       </c>
       <c r="D49">
-        <v>4000.05</v>
+        <v>4619.53</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -1686,12 +1686,12 @@
         <v>152</v>
       </c>
       <c r="D50">
-        <v>1168.49</v>
+        <v>3484.02</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -1700,12 +1700,12 @@
         <v>153</v>
       </c>
       <c r="D51">
-        <v>4802.47</v>
+        <v>4444.91</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -1714,12 +1714,12 @@
         <v>154</v>
       </c>
       <c r="D52">
-        <v>4773.21</v>
+        <v>3872.47</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
@@ -1728,12 +1728,12 @@
         <v>155</v>
       </c>
       <c r="D53">
-        <v>4921.86</v>
+        <v>1493.24</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -1742,12 +1742,12 @@
         <v>156</v>
       </c>
       <c r="D54">
-        <v>2911.84</v>
+        <v>2213.71</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -1756,12 +1756,12 @@
         <v>157</v>
       </c>
       <c r="D55">
-        <v>4783.19</v>
+        <v>1742.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
@@ -1770,12 +1770,12 @@
         <v>158</v>
       </c>
       <c r="D56">
-        <v>4734.19</v>
+        <v>4397.84</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -1784,12 +1784,12 @@
         <v>159</v>
       </c>
       <c r="D57">
-        <v>2442.9</v>
+        <v>3824.37</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -1798,12 +1798,12 @@
         <v>160</v>
       </c>
       <c r="D58">
-        <v>1876.86</v>
+        <v>3196.24</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
@@ -1812,12 +1812,12 @@
         <v>161</v>
       </c>
       <c r="D59">
-        <v>2706.43</v>
+        <v>2997.9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -1826,12 +1826,12 @@
         <v>162</v>
       </c>
       <c r="D60">
-        <v>2099.55</v>
+        <v>3641.84</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
@@ -1840,12 +1840,12 @@
         <v>163</v>
       </c>
       <c r="D61">
-        <v>4153.66</v>
+        <v>4184.14</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
@@ -1854,12 +1854,12 @@
         <v>164</v>
       </c>
       <c r="D62">
-        <v>4127.35</v>
+        <v>4674.22</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -1868,12 +1868,12 @@
         <v>165</v>
       </c>
       <c r="D63">
-        <v>1008.14</v>
+        <v>1939.62</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
@@ -1882,12 +1882,12 @@
         <v>166</v>
       </c>
       <c r="D64">
-        <v>4983.28</v>
+        <v>4047.26</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -1896,12 +1896,12 @@
         <v>167</v>
       </c>
       <c r="D65">
-        <v>2692.1</v>
+        <v>2711.71</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
@@ -1910,12 +1910,12 @@
         <v>168</v>
       </c>
       <c r="D66">
-        <v>1175.28</v>
+        <v>3351.55</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -1924,12 +1924,12 @@
         <v>169</v>
       </c>
       <c r="D67">
-        <v>4299.57</v>
+        <v>1770.73</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
@@ -1938,12 +1938,12 @@
         <v>170</v>
       </c>
       <c r="D68">
-        <v>1894.12</v>
+        <v>4520.63</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
@@ -1952,12 +1952,12 @@
         <v>171</v>
       </c>
       <c r="D69">
-        <v>1601.73</v>
+        <v>2103.86</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -1966,12 +1966,12 @@
         <v>172</v>
       </c>
       <c r="D70">
-        <v>2238.27</v>
+        <v>1845.26</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
@@ -1980,12 +1980,12 @@
         <v>173</v>
       </c>
       <c r="D71">
-        <v>4621.48</v>
+        <v>4309.69</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
@@ -1994,12 +1994,12 @@
         <v>174</v>
       </c>
       <c r="D72">
-        <v>1405.98</v>
+        <v>2931.62</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2008,12 +2008,12 @@
         <v>175</v>
       </c>
       <c r="D73">
-        <v>1374.64</v>
+        <v>2636.63</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
@@ -2022,12 +2022,12 @@
         <v>176</v>
       </c>
       <c r="D74">
-        <v>3690.71</v>
+        <v>3423.83</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -2036,12 +2036,12 @@
         <v>177</v>
       </c>
       <c r="D75">
-        <v>2089.67</v>
+        <v>3515.49</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
@@ -2050,12 +2050,12 @@
         <v>178</v>
       </c>
       <c r="D76">
-        <v>2870.59</v>
+        <v>1916.19</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
@@ -2064,12 +2064,12 @@
         <v>179</v>
       </c>
       <c r="D77">
-        <v>4403.8</v>
+        <v>1400.59</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
@@ -2078,12 +2078,12 @@
         <v>180</v>
       </c>
       <c r="D78">
-        <v>1691.85</v>
+        <v>1233.25</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
@@ -2092,12 +2092,12 @@
         <v>181</v>
       </c>
       <c r="D79">
-        <v>4226.29</v>
+        <v>4247.61</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
@@ -2106,12 +2106,12 @@
         <v>182</v>
       </c>
       <c r="D80">
-        <v>2398.17</v>
+        <v>2389.88</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
@@ -2120,12 +2120,12 @@
         <v>183</v>
       </c>
       <c r="D81">
-        <v>3522.14</v>
+        <v>1871.14</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>84</v>
@@ -2134,12 +2134,12 @@
         <v>184</v>
       </c>
       <c r="D82">
-        <v>3168.13</v>
+        <v>3850.97</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
@@ -2148,12 +2148,12 @@
         <v>185</v>
       </c>
       <c r="D83">
-        <v>2096.75</v>
+        <v>1197.3</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
@@ -2162,12 +2162,12 @@
         <v>186</v>
       </c>
       <c r="D84">
-        <v>3498.51</v>
+        <v>2356.92</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
@@ -2176,12 +2176,12 @@
         <v>187</v>
       </c>
       <c r="D85">
-        <v>2373.01</v>
+        <v>1612.11</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
@@ -2190,12 +2190,12 @@
         <v>188</v>
       </c>
       <c r="D86">
-        <v>1093.83</v>
+        <v>4937.31</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
@@ -2204,12 +2204,12 @@
         <v>189</v>
       </c>
       <c r="D87">
-        <v>1039.01</v>
+        <v>3078.44</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
@@ -2218,12 +2218,12 @@
         <v>190</v>
       </c>
       <c r="D88">
-        <v>4760.53</v>
+        <v>2168.65</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
@@ -2232,12 +2232,12 @@
         <v>191</v>
       </c>
       <c r="D89">
-        <v>1644.21</v>
+        <v>4048.66</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -2246,12 +2246,12 @@
         <v>192</v>
       </c>
       <c r="D90">
-        <v>2698.03</v>
+        <v>3890.56</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
@@ -2260,12 +2260,12 @@
         <v>193</v>
       </c>
       <c r="D91">
-        <v>1126.91</v>
+        <v>2080.27</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>94</v>
@@ -2274,12 +2274,12 @@
         <v>194</v>
       </c>
       <c r="D92">
-        <v>3470.84</v>
+        <v>1537.47</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
@@ -2288,12 +2288,12 @@
         <v>195</v>
       </c>
       <c r="D93">
-        <v>2712.3</v>
+        <v>1461.41</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
@@ -2302,12 +2302,12 @@
         <v>196</v>
       </c>
       <c r="D94">
-        <v>1544.66</v>
+        <v>3720.03</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
@@ -2316,12 +2316,12 @@
         <v>197</v>
       </c>
       <c r="D95">
-        <v>4920.78</v>
+        <v>2534.08</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
@@ -2330,12 +2330,12 @@
         <v>198</v>
       </c>
       <c r="D96">
-        <v>1804.41</v>
+        <v>4582.99</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -2344,12 +2344,12 @@
         <v>199</v>
       </c>
       <c r="D97">
-        <v>3288.83</v>
+        <v>2810.49</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -2358,12 +2358,12 @@
         <v>200</v>
       </c>
       <c r="D98">
-        <v>1679.03</v>
+        <v>3429.77</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
@@ -2372,12 +2372,12 @@
         <v>201</v>
       </c>
       <c r="D99">
-        <v>3762.28</v>
+        <v>4700.4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
@@ -2386,12 +2386,12 @@
         <v>202</v>
       </c>
       <c r="D100">
-        <v>1463.27</v>
+        <v>3395.83</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
@@ -2400,7 +2400,7 @@
         <v>203</v>
       </c>
       <c r="D101">
-        <v>3812.53</v>
+        <v>3957.25</v>
       </c>
     </row>
   </sheetData>
